--- a/config_9.28/act_ty_ldfd_config.xlsx
+++ b/config_9.28/act_ty_ldfd_config.xlsx
@@ -113,11 +113,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1632787200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1633967999</t>
+    <t>1632787200,1632787200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1633967999,1633967999</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +468,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
